--- a/target/classes/test-data.xlsx
+++ b/target/classes/test-data.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arunachalam.d\eclipse-workspace\TestNGFramework\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15810" windowHeight="7140"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -360,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,7 +400,7 @@
         <v>123456789</v>
       </c>
     </row>
-    <row r="4" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>9841595068</v>
       </c>
@@ -404,20 +408,16 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="5" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>123456</v>
       </c>
     </row>
-    <row r="6" spans="1:2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>9841595068</v>
-      </c>
-      <c r="B6">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>9841595069</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1"/>
